--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1496897.936046762</v>
+        <v>1541412.005847686</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6605221.096453904</v>
+        <v>5301029.811029742</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3505190.119178669</v>
+        <v>2166967.111789207</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7618944.24553972</v>
+        <v>8076718.435252844</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116.2444241593369</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>299.6795692073657</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -823,19 +825,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>75.44606417826029</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>49.03296197840172</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>51.50838742935048</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>18.5320589302707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751802</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
@@ -1133,25 +1135,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>263.6024096915029</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>248.6187554760695</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -1193,13 +1195,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1294,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>31.836553946694</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -1354,10 +1356,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -1382,10 +1384,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>170.3245356503229</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1433,10 +1435,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>255.004972100615</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -1619,7 +1621,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -1658,19 +1660,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>39.36080155432865</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>334.0755358138493</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -1828,7 +1830,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059088</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -1907,10 +1909,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>354.5721285655362</v>
       </c>
       <c r="Y17" t="n">
-        <v>360.5621482941648</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -2008,10 +2010,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>8.28374031936673</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>102.0946856454011</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2093,10 +2095,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H20" t="n">
-        <v>84.73179601342665</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>58.8776823612798</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>107.7308640823082</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
@@ -2330,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>269.9562877695847</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>27.35334490128935</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>213.5952110672386</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2564,16 +2566,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>378.9769832968749</v>
       </c>
       <c r="H26" t="n">
-        <v>84.73179601342665</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
@@ -2719,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>31.70610574221882</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>115.1825854367171</v>
@@ -2776,7 +2778,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>186.0936665681651</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2792,7 +2794,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>182.9557283947299</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -2804,13 +2806,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>47.64512042712315</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
@@ -2956,7 +2958,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>36.45020302297358</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2995,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>266.2723283900672</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -3047,7 +3049,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>123.8394724344234</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3190,7 +3192,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>128.7466440120155</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>266.2723283900672</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -3253,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3274,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>361.0003448878583</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3281,10 +3283,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3424,25 +3426,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>118.8842389624892</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>106.9706214097036</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3484,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3521,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,10 +3559,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V38" t="n">
-        <v>343.2559819443612</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>22.55063026834896</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>97.46748333863208</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -3752,13 +3754,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>8.924297638202884</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -3901,19 +3903,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>114.3017476756748</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.913758367914638</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
@@ -3992,10 +3994,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="U44" t="n">
-        <v>0.9202602248441235</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>106.9706214097034</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>72.55946887449164</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2428.183171250072</v>
+        <v>974.6830684215697</v>
       </c>
       <c r="C2" t="n">
-        <v>2018.058580563342</v>
+        <v>564.5584777348398</v>
       </c>
       <c r="D2" t="n">
-        <v>1613.594650656403</v>
+        <v>564.1349518683044</v>
       </c>
       <c r="E2" t="n">
-        <v>1199.254435173299</v>
+        <v>553.8351404256051</v>
       </c>
       <c r="F2" t="n">
-        <v>778.224023126987</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G2" t="n">
-        <v>369.4957390198192</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H2" t="n">
-        <v>58.5872416475372</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>445.5754449927842</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>1158.166844805022</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M2" t="n">
-        <v>1883.183960193295</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N2" t="n">
-        <v>2608.201075581568</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O2" t="n">
-        <v>2608.201075581568</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P2" t="n">
-        <v>2608.201075581568</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>2929.36208237686</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>2545.601781512029</v>
+        <v>1785.547645917107</v>
       </c>
       <c r="X2" t="n">
-        <v>2545.601781512029</v>
+        <v>1384.904248086059</v>
       </c>
       <c r="Y2" t="n">
-        <v>2545.601781512029</v>
+        <v>1384.904248086059</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>737.4180835340717</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>603.4230122830173</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>486.5258545024097</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>366.0330384947378</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>257.0731586772423</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>150.083045991581</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>79.33583302729703</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>251.4000992101705</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>707.2063554754692</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="L3" t="n">
-        <v>1193.526080325524</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="M3" t="n">
-        <v>1193.526080325524</v>
+        <v>751.4208778585607</v>
       </c>
       <c r="N3" t="n">
-        <v>1193.526080325524</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="O3" t="n">
-        <v>1193.526080325524</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P3" t="n">
-        <v>1755.231972814054</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q3" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S3" t="n">
-        <v>1997.086427612346</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T3" t="n">
-        <v>1837.744563799354</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>1640.393752937573</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1426.682225930607</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1213.449057666935</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
-        <v>1037.123075805828</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>877.7211161696583</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1880.158658065927</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C4" t="n">
-        <v>1709.065285627644</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D4" t="n">
-        <v>1549.570640950554</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E4" t="n">
-        <v>1549.570640950554</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F4" t="n">
-        <v>1549.570640950554</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G4" t="n">
-        <v>1549.570640950554</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H4" t="n">
-        <v>1399.96318575601</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>1399.96318575601</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>1414.045735161221</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>1568.598062883459</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>1828.495163163519</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>2117.759219604013</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>2398.598001998263</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>2658.158612324737</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>2863.834052574349</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>2929.36208237686</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>2929.36208237686</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>2742.970314256771</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>2742.970314256771</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>2460.172166802894</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V4" t="n">
-        <v>2383.964021168288</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W4" t="n">
-        <v>2104.894356677162</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X4" t="n">
-        <v>2104.894356677162</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y4" t="n">
-        <v>1880.158658065927</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2169.303348048851</v>
+        <v>930.6558803095402</v>
       </c>
       <c r="C5" t="n">
-        <v>1759.178757362121</v>
+        <v>520.5312896228103</v>
       </c>
       <c r="D5" t="n">
-        <v>1354.714827455182</v>
+        <v>471.0030452001823</v>
       </c>
       <c r="E5" t="n">
-        <v>940.3746119720786</v>
+        <v>460.703233757483</v>
       </c>
       <c r="F5" t="n">
-        <v>519.3441999257661</v>
+        <v>443.7132257515746</v>
       </c>
       <c r="G5" t="n">
-        <v>110.6159158185983</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
-        <v>110.6159158185983</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>312.7727131152915</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>850.932214224331</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L5" t="n">
-        <v>850.932214224331</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M5" t="n">
-        <v>1575.949329612604</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N5" t="n">
-        <v>2079.044377662417</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O5" t="n">
-        <v>2079.044377662417</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P5" t="n">
-        <v>2608.201075581568</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>2579.524527713341</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="W5" t="n">
-        <v>2579.524527713341</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="X5" t="n">
-        <v>2579.524527713341</v>
+        <v>1337.773328985535</v>
       </c>
       <c r="Y5" t="n">
-        <v>2579.524527713341</v>
+        <v>936.8366559336256</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>737.4180835340717</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>603.4230122830173</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>486.5258545024097</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>366.0330384947378</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>257.0731586772423</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>150.083045991581</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>79.33583302729703</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L6" t="n">
-        <v>114.3963390753401</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M6" t="n">
-        <v>114.3963390753401</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N6" t="n">
-        <v>839.4134544636129</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O6" t="n">
-        <v>1543.370545009507</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P6" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S6" t="n">
-        <v>1997.086427612346</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T6" t="n">
-        <v>1837.744563799354</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>1640.393752937573</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1426.682225930607</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1213.449057666935</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
-        <v>1037.123075805828</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>877.7211161696583</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1579.593252332409</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>1560.874000887691</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>1560.874000887691</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>1399.96318575601</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>1399.96318575601</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>1399.96318575601</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>1399.96318575601</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>1399.96318575601</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>1414.045735161221</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>1568.598062883459</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
-        <v>1828.495163163519</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M7" t="n">
-        <v>2117.759219604013</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N7" t="n">
-        <v>2398.598001998263</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O7" t="n">
-        <v>2658.158612324737</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P7" t="n">
-        <v>2863.834052574349</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q7" t="n">
-        <v>2929.36208237686</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>2844.08936405226</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>2844.08936405226</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>2604.540625028962</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U7" t="n">
-        <v>2321.742477575086</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V7" t="n">
-        <v>2321.742477575086</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W7" t="n">
-        <v>2042.67281308396</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X7" t="n">
-        <v>1804.328950943644</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y7" t="n">
-        <v>1579.593252332409</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1170.99499618449</v>
+        <v>2482.186976416982</v>
       </c>
       <c r="C8" t="n">
-        <v>1164.910809538164</v>
+        <v>2072.062385730253</v>
       </c>
       <c r="D8" t="n">
-        <v>898.6457492437168</v>
+        <v>1667.598455823313</v>
       </c>
       <c r="E8" t="n">
-        <v>484.3055337606135</v>
+        <v>1253.25824034021</v>
       </c>
       <c r="F8" t="n">
-        <v>467.315525754705</v>
+        <v>832.2278282938973</v>
       </c>
       <c r="G8" t="n">
-        <v>58.5872416475372</v>
+        <v>423.4995441867295</v>
       </c>
       <c r="H8" t="n">
-        <v>58.5872416475372</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>309.9632096502047</v>
+        <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>848.1227107592442</v>
+        <v>878.3626980441626</v>
       </c>
       <c r="L8" t="n">
-        <v>1560.714110571482</v>
+        <v>1590.9540978564</v>
       </c>
       <c r="M8" t="n">
-        <v>1560.714110571482</v>
+        <v>2367.272688848154</v>
       </c>
       <c r="N8" t="n">
-        <v>2285.731225959755</v>
+        <v>3120.453705486772</v>
       </c>
       <c r="O8" t="n">
-        <v>2929.36208237686</v>
+        <v>3764.084561903877</v>
       </c>
       <c r="P8" t="n">
-        <v>2929.36208237686</v>
+        <v>3979.725266573146</v>
       </c>
       <c r="Q8" t="n">
-        <v>2929.36208237686</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="R8" t="n">
-        <v>2929.36208237686</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>2794.081007170961</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="T8" t="n">
-        <v>2571.87452311782</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="U8" t="n">
-        <v>2314.81403137733</v>
+        <v>4043.825781627948</v>
       </c>
       <c r="V8" t="n">
-        <v>1964.976476713811</v>
+        <v>3693.988226964429</v>
       </c>
       <c r="W8" t="n">
-        <v>1581.216175848979</v>
+        <v>3693.988226964429</v>
       </c>
       <c r="X8" t="n">
-        <v>1581.216175848979</v>
+        <v>3293.344829133382</v>
       </c>
       <c r="Y8" t="n">
-        <v>1581.216175848979</v>
+        <v>2892.408156081472</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>737.4180835340717</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>603.4230122830173</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>486.5258545024097</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>366.0330384947378</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>257.0731586772423</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>150.083045991581</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>79.33583302729703</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>58.5872416475372</v>
+        <v>278.830583030002</v>
       </c>
       <c r="K9" t="n">
-        <v>514.3934979128359</v>
+        <v>278.830583030002</v>
       </c>
       <c r="L9" t="n">
-        <v>514.3934979128359</v>
+        <v>278.830583030002</v>
       </c>
       <c r="M9" t="n">
-        <v>1000.655338063151</v>
+        <v>1121.807663724569</v>
       </c>
       <c r="N9" t="n">
-        <v>1725.672453451424</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.672453451424</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="P9" t="n">
-        <v>1725.672453451424</v>
+        <v>1753.102937271255</v>
       </c>
       <c r="Q9" t="n">
-        <v>2075.516918135407</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="R9" t="n">
-        <v>2105.076437498037</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>1997.086427612346</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
-        <v>1837.744563799354</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1640.393752937573</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1426.682225930607</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
-        <v>1213.449057666935</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.123075805828</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>877.7211161696583</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>495.3387473519816</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="C10" t="n">
-        <v>495.3387473519816</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="D10" t="n">
-        <v>335.8441026748916</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="E10" t="n">
-        <v>174.9332875432111</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9332875432111</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="G10" t="n">
-        <v>174.9332875432111</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H10" t="n">
-        <v>174.9332875432111</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I10" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
-        <v>72.66979105274773</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>227.2221187749857</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>487.1192190550462</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>776.3832754955395</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1057.22205788979</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1316.782668216264</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
-        <v>1522.458108465876</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1587.986138268387</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1555.828002968696</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1555.828002968696</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1555.828002968696</v>
+        <v>1375.867883064921</v>
       </c>
       <c r="U10" t="n">
-        <v>1273.029855514821</v>
+        <v>1093.069735611045</v>
       </c>
       <c r="V10" t="n">
-        <v>999.1441104543426</v>
+        <v>819.1839905505669</v>
       </c>
       <c r="W10" t="n">
-        <v>720.0744459632169</v>
+        <v>540.1143260594413</v>
       </c>
       <c r="X10" t="n">
-        <v>720.0744459632169</v>
+        <v>301.7704639191247</v>
       </c>
       <c r="Y10" t="n">
-        <v>495.3387473519816</v>
+        <v>86.01772546736876</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2023.719241343133</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C11" t="n">
-        <v>1613.594650656403</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D11" t="n">
-        <v>1613.594650656403</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E11" t="n">
-        <v>1199.254435173299</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F11" t="n">
-        <v>778.224023126987</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G11" t="n">
-        <v>369.4957390198192</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H11" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>58.5872416475372</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>58.5872416475372</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>771.1786414597752</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>1496.195756848048</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>2221.212872236321</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>2864.843728653426</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>2929.36208237686</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>2929.36208237686</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>2929.36208237686</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>2929.36208237686</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>2757.317096871483</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>2407.479542207964</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>2023.719241343133</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X11" t="n">
-        <v>2023.719241343133</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y11" t="n">
-        <v>2023.719241343133</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>58.5872416475372</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L12" t="n">
-        <v>58.5872416475372</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M12" t="n">
-        <v>676.1022315638701</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N12" t="n">
-        <v>1401.119346952143</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O12" t="n">
-        <v>2105.076437498037</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P12" t="n">
-        <v>2105.076437498037</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q12" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>396.9310051602773</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C13" t="n">
-        <v>225.8376327219938</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D13" t="n">
-        <v>225.8376327219938</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E13" t="n">
-        <v>225.8376327219938</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F13" t="n">
-        <v>225.8376327219938</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G13" t="n">
-        <v>58.5872416475372</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H13" t="n">
-        <v>58.5872416475372</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I13" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>72.66979105274773</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>227.2221187749857</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>487.1192190550462</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>776.3832754955395</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1057.22205788979</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1316.782668216264</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1522.458108465876</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1401.594370148297</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1162.045631125</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U13" t="n">
-        <v>879.2474836711237</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V13" t="n">
-        <v>621.6667037715126</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W13" t="n">
-        <v>621.6667037715126</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X13" t="n">
-        <v>621.6667037715126</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y13" t="n">
-        <v>396.9310051602773</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1695.682059139101</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C14" t="n">
-        <v>1695.682059139101</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D14" t="n">
-        <v>1291.218129232162</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E14" t="n">
-        <v>876.8779137490585</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F14" t="n">
-        <v>455.8475017027461</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G14" t="n">
-        <v>455.8475017027461</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H14" t="n">
-        <v>144.9390043304641</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>58.5872416475372</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>596.7467427565767</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
-        <v>596.7467427565767</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>1321.76385814485</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>1435.413521245312</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>2079.044377662417</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>2608.201075581568</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>2929.36208237686</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>2794.081007170961</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>2794.081007170961</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>2537.020515430471</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>2497.262130022058</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W14" t="n">
-        <v>2497.262130022058</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="X14" t="n">
-        <v>2096.618732191011</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y14" t="n">
-        <v>1695.682059139101</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>719.6754135668255</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M15" t="n">
-        <v>1444.692528955098</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N15" t="n">
-        <v>2105.076437498037</v>
+        <v>1627.989961721529</v>
       </c>
       <c r="O15" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>72.66979105274773</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>227.2221187749857</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>487.1192190550462</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>776.3832754955395</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1057.22205788979</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1316.782668216264</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1522.458108465876</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1502.713419943787</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S16" t="n">
-        <v>1316.321651823697</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T16" t="n">
-        <v>1076.772912800399</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U16" t="n">
-        <v>793.9747653465236</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V16" t="n">
-        <v>520.0890202860455</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W16" t="n">
-        <v>241.0193557949199</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2144.727460069145</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="D17" t="n">
         <v>1734.602869382415</v>
@@ -5555,10 +5557,10 @@
         <v>3314.038978003258</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>2955.885312785545</v>
       </c>
       <c r="Y17" t="n">
-        <v>2549.191389976085</v>
+        <v>2554.948639733635</v>
       </c>
     </row>
     <row r="18">
@@ -5601,10 +5603,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N18" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O18" t="n">
         <v>2139.732893541123</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>548.5451751656769</v>
+        <v>588.462840695405</v>
       </c>
       <c r="C19" t="n">
-        <v>377.4518027273934</v>
+        <v>417.3694682571215</v>
       </c>
       <c r="D19" t="n">
-        <v>217.9571580503035</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E19" t="n">
-        <v>209.5897435862967</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5701,22 +5703,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1339.844446857597</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V19" t="n">
-        <v>1065.958701797119</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="W19" t="n">
-        <v>786.8890373059935</v>
+        <v>1104.024190797049</v>
       </c>
       <c r="X19" t="n">
-        <v>548.5451751656769</v>
+        <v>1000.898245700685</v>
       </c>
       <c r="Y19" t="n">
-        <v>548.5451751656769</v>
+        <v>776.1625470894494</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2237.518802661711</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>1827.394211974981</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D20" t="n">
-        <v>1422.930282068041</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E20" t="n">
-        <v>1008.590066584938</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F20" t="n">
-        <v>587.5596545386256</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G20" t="n">
-        <v>178.8313704314578</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H20" t="n">
         <v>93.2436976906228</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>3833.080354073989</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3449.320053209158</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>3048.67665537811</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2647.7399823262</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="21">
@@ -5835,13 +5837,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>1597.308950304478</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N21" t="n">
-        <v>1597.308950304478</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5932,28 +5934,28 @@
         <v>4662.18488453114</v>
       </c>
       <c r="R22" t="n">
-        <v>4576.912166206539</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S22" t="n">
-        <v>4576.912166206539</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T22" t="n">
-        <v>4337.363427183242</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U22" t="n">
-        <v>4228.544372554647</v>
+        <v>4379.386737077264</v>
       </c>
       <c r="V22" t="n">
-        <v>3954.658627494169</v>
+        <v>4105.500992016786</v>
       </c>
       <c r="W22" t="n">
-        <v>3954.658627494169</v>
+        <v>3826.43132752566</v>
       </c>
       <c r="X22" t="n">
-        <v>3716.314765353853</v>
+        <v>3588.087465385343</v>
       </c>
       <c r="Y22" t="n">
-        <v>3491.579066742617</v>
+        <v>3363.351766774108</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5980,10 @@
         <v>452.2785793327262</v>
       </c>
       <c r="G23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.2436976906228</v>
+        <v>4222.119838211426</v>
       </c>
       <c r="C25" t="n">
-        <v>93.2436976906228</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="D25" t="n">
-        <v>93.2436976906228</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E25" t="n">
-        <v>93.2436976906228</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F25" t="n">
-        <v>93.2436976906228</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G25" t="n">
-        <v>93.2436976906228</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H25" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J25" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K25" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L25" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M25" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N25" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O25" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P25" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.642594311473</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="T25" t="n">
-        <v>1383.093855288175</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="U25" t="n">
-        <v>1100.295707834299</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="V25" t="n">
-        <v>826.4099627738212</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="W25" t="n">
-        <v>547.3402982826956</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="X25" t="n">
-        <v>308.996436142379</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.2436976906228</v>
+        <v>4409.819544605471</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2237.518802661711</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C26" t="n">
-        <v>1827.394211974981</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D26" t="n">
-        <v>1422.930282068041</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E26" t="n">
-        <v>1008.590066584938</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F26" t="n">
-        <v>587.5596545386256</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="G26" t="n">
-        <v>178.8313704314578</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6251,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>3833.080354073989</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3449.320053209158</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>3048.67665537811</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y26" t="n">
-        <v>2647.7399823262</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6308,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L27" t="n">
-        <v>754.331869609911</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M27" t="n">
-        <v>754.331869609911</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>558.4739592918813</v>
+        <v>370.5005587179772</v>
       </c>
       <c r="C28" t="n">
-        <v>558.4739592918813</v>
+        <v>370.5005587179772</v>
       </c>
       <c r="D28" t="n">
-        <v>558.4739592918813</v>
+        <v>370.5005587179772</v>
       </c>
       <c r="E28" t="n">
-        <v>558.4739592918813</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H28" t="n">
         <v>209.5897435862967</v>
@@ -6424,10 +6426,10 @@
         <v>558.4739592918813</v>
       </c>
       <c r="X28" t="n">
-        <v>558.4739592918813</v>
+        <v>370.5005587179772</v>
       </c>
       <c r="Y28" t="n">
-        <v>558.4739592918813</v>
+        <v>370.5005587179772</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E29" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F29" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G29" t="n">
-        <v>452.2785793327262</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
-        <v>141.3700819604442</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6488,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="30">
@@ -6549,16 +6551,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>423.8317148059963</v>
+        <v>460.6501016978888</v>
       </c>
       <c r="C31" t="n">
-        <v>252.7383423677128</v>
+        <v>289.5567292596053</v>
       </c>
       <c r="D31" t="n">
-        <v>93.2436976906228</v>
+        <v>130.0620845825153</v>
       </c>
       <c r="E31" t="n">
         <v>93.2436976906228</v>
@@ -6643,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.642594311473</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U31" t="n">
-        <v>1353.680646442718</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V31" t="n">
-        <v>1353.680646442718</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="W31" t="n">
-        <v>1074.610981951593</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="X31" t="n">
-        <v>836.267119811276</v>
+        <v>873.0855067031684</v>
       </c>
       <c r="Y31" t="n">
-        <v>611.5314212000407</v>
+        <v>648.3498080919331</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C32" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D32" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E32" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F32" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G32" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6725,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U32" t="n">
-        <v>4408.238733368956</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V32" t="n">
-        <v>4058.401178705436</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W32" t="n">
-        <v>3674.640877840605</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X32" t="n">
-        <v>3273.997480009557</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y32" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="33">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3717.522912482355</v>
+        <v>423.8317148059963</v>
       </c>
       <c r="C34" t="n">
-        <v>3546.429540044072</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D34" t="n">
-        <v>3416.38242488042</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>3416.38242488042</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3416.38242488042</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>4422.636145507842</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U34" t="n">
-        <v>4422.636145507842</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V34" t="n">
-        <v>4422.636145507842</v>
+        <v>1353.680646442718</v>
       </c>
       <c r="W34" t="n">
-        <v>4143.566481016716</v>
+        <v>1074.610981951593</v>
       </c>
       <c r="X34" t="n">
-        <v>3905.2226188764</v>
+        <v>836.267119811276</v>
       </c>
       <c r="Y34" t="n">
-        <v>3905.2226188764</v>
+        <v>611.5314212000407</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E35" t="n">
-        <v>923.0023938441032</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
-        <v>501.9719817977906</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C36" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D36" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E36" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F36" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G36" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H36" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>2945.549711724955</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>3788.526792419522</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N36" t="n">
-        <v>4662.18488453114</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O36" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P36" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q36" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R36" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S36" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T36" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U36" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V36" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W36" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X36" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y36" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>692.7936626747511</v>
+        <v>4010.200740502562</v>
       </c>
       <c r="C37" t="n">
-        <v>521.7002902364676</v>
+        <v>3890.115650641462</v>
       </c>
       <c r="D37" t="n">
-        <v>362.2056455593776</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="E37" t="n">
-        <v>201.2948304276971</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F37" t="n">
-        <v>93.2436976906228</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G37" t="n">
-        <v>93.2436976906228</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J37" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K37" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L37" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M37" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N37" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O37" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P37" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.642594311473</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.642594311473</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="W37" t="n">
-        <v>1343.572929820347</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="X37" t="n">
-        <v>1105.229067680031</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="Y37" t="n">
-        <v>880.4933690687955</v>
+        <v>4197.900446896607</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C38" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D38" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E38" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F38" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G38" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H38" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7205,19 +7207,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="U38" t="n">
-        <v>4405.12439279065</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V38" t="n">
-        <v>4058.401178705436</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W38" t="n">
-        <v>3674.640877840605</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X38" t="n">
-        <v>3273.997480009557</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y38" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>741.8628115185547</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M39" t="n">
-        <v>741.8628115185547</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N39" t="n">
-        <v>1548.467481689963</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O39" t="n">
-        <v>1548.467481689963</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P39" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q39" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7306,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.2436976906228</v>
+        <v>584.7425299376769</v>
       </c>
       <c r="C40" t="n">
-        <v>93.2436976906228</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="D40" t="n">
-        <v>93.2436976906228</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E40" t="n">
         <v>93.2436976906228</v>
@@ -7357,25 +7359,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>1350.978107866783</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T40" t="n">
-        <v>1111.429368843485</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U40" t="n">
-        <v>828.6312213896092</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V40" t="n">
-        <v>554.7454763291312</v>
+        <v>1514.591461574399</v>
       </c>
       <c r="W40" t="n">
-        <v>275.6758118380055</v>
+        <v>1235.521797083273</v>
       </c>
       <c r="X40" t="n">
-        <v>93.2436976906228</v>
+        <v>997.1779349429565</v>
       </c>
       <c r="Y40" t="n">
-        <v>93.2436976906228</v>
+        <v>772.4422363317212</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1708.546389770622</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C41" t="n">
-        <v>1298.421799083892</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D41" t="n">
-        <v>893.957869176953</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E41" t="n">
-        <v>479.6176536938497</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>58.5872416475372</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>58.5872416475372</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>58.5872416475372</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>58.5872416475372</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>58.5872416475372</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
-        <v>771.1786414597752</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>1496.195756848048</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>2221.212872236321</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>2400.205384457709</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>2929.36208237686</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>2929.36208237686</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>2929.36208237686</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U41" t="n">
-        <v>2929.36208237686</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V41" t="n">
-        <v>2929.36208237686</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W41" t="n">
-        <v>2920.347640318069</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X41" t="n">
-        <v>2519.704242487022</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y41" t="n">
-        <v>2118.767569435112</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M42" t="n">
-        <v>783.60435703581</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N42" t="n">
-        <v>1508.621472424083</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O42" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P42" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1720.664013388837</v>
+        <v>700.1988407211867</v>
       </c>
       <c r="C43" t="n">
-        <v>1549.570640950554</v>
+        <v>529.1054682829032</v>
       </c>
       <c r="D43" t="n">
-        <v>1549.570640950554</v>
+        <v>369.6108236058132</v>
       </c>
       <c r="E43" t="n">
-        <v>1549.570640950554</v>
+        <v>208.7000084741327</v>
       </c>
       <c r="F43" t="n">
-        <v>1549.570640950554</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>1549.570640950554</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>1399.96318575601</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>1399.96318575601</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>1414.045735161221</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>1568.598062883459</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>1828.495163163519</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>2117.759219604013</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>2398.598001998263</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>2658.158612324737</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>2863.834052574349</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>2929.36208237686</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>2924.398690086037</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S43" t="n">
-        <v>2924.398690086037</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T43" t="n">
-        <v>2924.398690086037</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U43" t="n">
-        <v>2924.398690086037</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="V43" t="n">
-        <v>2650.512945025559</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="W43" t="n">
-        <v>2371.443280534433</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="X43" t="n">
-        <v>2133.099418394117</v>
+        <v>1112.634245726466</v>
       </c>
       <c r="Y43" t="n">
-        <v>1908.363719782881</v>
+        <v>887.8985471152311</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2117.27467387779</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C44" t="n">
-        <v>1707.15008319106</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D44" t="n">
-        <v>1302.686153284121</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>888.3459378010175</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>467.315525754705</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>58.5872416475372</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>58.5872416475372</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>58.5872416475372</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K44" t="n">
-        <v>596.7467427565767</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L44" t="n">
-        <v>1309.338142568815</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>1756.574528040604</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>1756.574528040604</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>2400.205384457709</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>2929.36208237686</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>2929.36208237686</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>2929.36208237686</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>2929.36208237686</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="U44" t="n">
-        <v>2928.432526594189</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V44" t="n">
-        <v>2928.432526594189</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W44" t="n">
-        <v>2928.432526594189</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X44" t="n">
-        <v>2928.432526594189</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y44" t="n">
-        <v>2527.495853542279</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1561.703728412895</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>1427.70865716184</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>1310.811499381233</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>1190.318683373561</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>1081.358803556065</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>974.3686908704041</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>903.6214779061202</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>882.8728865263604</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>882.8728865263604</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>882.8728865263604</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>882.8728865263604</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M45" t="n">
-        <v>1607.890001914633</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N45" t="n">
-        <v>2332.907117302906</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O45" t="n">
-        <v>2929.36208237686</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>2929.36208237686</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2929.36208237686</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2929.36208237686</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>2821.372072491169</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>2662.030208678177</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>2464.679397816396</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>2250.96787080943</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>2037.734702545758</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1861.408720684651</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>1702.006761048481</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1999.513150740138</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="C46" t="n">
-        <v>1828.419778301855</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D46" t="n">
-        <v>1668.925133624765</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>1508.014318493084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>1399.96318575601</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>1399.96318575601</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>1399.96318575601</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>1399.96318575601</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>1414.045735161221</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>1568.598062883459</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>1828.495163163519</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>2117.759219604013</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>2398.598001998263</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>2658.158612324737</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>2863.834052574349</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>2929.36208237686</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>2929.36208237686</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S46" t="n">
-        <v>2929.36208237686</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T46" t="n">
-        <v>2929.36208237686</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U46" t="n">
-        <v>2929.36208237686</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="V46" t="n">
-        <v>2929.36208237686</v>
+        <v>994.8875676103903</v>
       </c>
       <c r="W46" t="n">
-        <v>2650.292417885735</v>
+        <v>715.8179031192647</v>
       </c>
       <c r="X46" t="n">
-        <v>2411.948555745418</v>
+        <v>477.4740409789481</v>
       </c>
       <c r="Y46" t="n">
-        <v>2187.212857134183</v>
+        <v>252.7383423677128</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7981,19 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>480.0335647694263</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>815.2746908024792</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>825.6307450512605</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>825.2528113508343</v>
+        <v>228.5110173896169</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
         <v>93.64936328088416</v>
@@ -8000,7 +8002,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,25 +8060,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>547.3465691139345</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>363.9611095948396</v>
       </c>
       <c r="P3" t="n">
-        <v>621.6393243851574</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
         <v>59.00019910540541</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>632.7318453389136</v>
+        <v>590.1064824525349</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>825.6307450512605</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>601.0891069685514</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8298,19 +8300,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>112.4873494954984</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>785.533913987965</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>768.8192472281761</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>621.6393243851574</v>
+        <v>555.229727782121</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>327.2387105279216</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>632.7318453389136</v>
@@ -8459,19 +8461,19 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>311.4682568862063</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8529,25 +8531,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>548.7378596478266</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
-        <v>785.533913987965</v>
+        <v>123.485697492898</v>
       </c>
       <c r="O9" t="n">
         <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
         <v>410.0708656603775</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>158.8194175469794</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,25 +8771,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>681.3167988054204</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N12" t="n">
-        <v>785.533913987965</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8924,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>207.7099302520355</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
@@ -8945,10 +8947,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,13 +9014,13 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>789.9048043326325</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>720.2478464674257</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>574.6635313430244</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9170,7 +9172,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M17" t="n">
-        <v>877.4504173780092</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N17" t="n">
         <v>853.701196452193</v>
@@ -9249,13 +9251,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N18" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9483,16 +9485,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>605.6544519663084</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9954,7 +9956,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
         <v>723.8803540323523</v>
@@ -9963,13 +9965,13 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>741.5205988334646</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>429.3564034215989</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10197,19 +10199,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>492.8993828617429</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10604,7 +10606,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q35" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10668,7 +10670,7 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>389.3004056737939</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
         <v>909.0562844399999</v>
@@ -10677,7 +10679,7 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
@@ -10844,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>867.9455854860813</v>
+        <v>601.0963663600584</v>
       </c>
       <c r="O39" t="n">
         <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>273.9902930211242</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,13 +11147,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>789.9048043326325</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>660.231241700964</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -11303,10 +11305,10 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>545.044149176024</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
@@ -11315,10 +11317,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,13 +11384,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>789.9048043326325</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
-        <v>660.2312417009638</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>84.16535117276212</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,22 +23466,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>16.14191550925827</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,19 +23548,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>306.9783775625555</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>45.84716204233376</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300461</v>
+        <v>55.35263051300456</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23795,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>42.06483528720082</v>
       </c>
       <c r="Y17" t="n">
-        <v>36.36515802722602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>151.017966660997</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
@@ -23908,7 +23910,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,22 +23943,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.8657378735124</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23981,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H20" t="n">
-        <v>223.0676163851325</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>126.9450269688242</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24172,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>172.2393018970289</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>134.6847134965114</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>57.066646240065</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.893130557884348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24452,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>25.66401796922122</v>
       </c>
       <c r="H26" t="n">
-        <v>223.0676163851325</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24607,16 +24609,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>131.2787088882958</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>49.86675695074837</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -24680,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>223.0676163851327</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24692,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>37.84312462897442</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24844,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>122.8515039573902</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
@@ -24883,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>13.69783758926985</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24935,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>222.4997066824607</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>29.15305421830354</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
@@ -25087,13 +25089,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,13 +25128,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>4.874559219806031</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25160,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>49.19646844041392</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25169,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>50.49819975141148</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>56.01419322081109</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
@@ -25372,10 +25374,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25409,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25445,10 +25447,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V38" t="n">
-        <v>3.083197172522887</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
@@ -25597,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>248.5962573415243</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>308.5558614412305</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,16 +25681,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>370.9984002179802</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25789,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>48.68306695483986</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
         <v>115.1825854367171</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>79.50623277343971</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
@@ -25843,10 +25845,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>187.994239071985</v>
       </c>
       <c r="U44" t="n">
-        <v>253.5696265982409</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>56.01419322081128</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>165.577887163712</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>198.5874187353816</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>750623.8091006554</v>
+        <v>745653.1168785073</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>750623.8091006554</v>
+        <v>745653.1168785073</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>750623.8091006554</v>
+        <v>758729.1014560243</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>523963.8175222098</v>
+        <v>681408.805997964</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>523963.81752221</v>
+        <v>681408.8059979641</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>681408.8059979642</v>
+        <v>681408.8059979641</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>681408.8059979641</v>
+        <v>681408.8059979642</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>681408.8059979642</v>
+        <v>681408.805997964</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>681408.805997964</v>
+        <v>681408.8059979641</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>681408.8059979642</v>
+        <v>681408.805997964</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>681408.8059979641</v>
+        <v>681408.8059979642</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>681408.805997964</v>
+        <v>681408.8059979641</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>681408.8059979641</v>
+        <v>681408.8059979642</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>523963.8175222101</v>
+        <v>681408.805997964</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>523963.81752221</v>
+        <v>681408.8059979642</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>423494.2218843881</v>
+      </c>
+      <c r="C2" t="n">
+        <v>423494.221884388</v>
+      </c>
+      <c r="D2" t="n">
         <v>423494.2218843882</v>
       </c>
-      <c r="C2" t="n">
-        <v>423494.2218843881</v>
-      </c>
-      <c r="D2" t="n">
-        <v>423494.221884388</v>
-      </c>
       <c r="E2" t="n">
-        <v>289558.7723153068</v>
+        <v>376543.2677956219</v>
       </c>
       <c r="F2" t="n">
-        <v>289558.7723153069</v>
+        <v>376543.2677956219</v>
       </c>
       <c r="G2" t="n">
-        <v>376543.2677956219</v>
+        <v>376543.2677956218</v>
       </c>
       <c r="H2" t="n">
+        <v>376543.2677956221</v>
+      </c>
+      <c r="I2" t="n">
         <v>376543.267795622</v>
       </c>
-      <c r="I2" t="n">
-        <v>376543.2677956219</v>
-      </c>
       <c r="J2" t="n">
-        <v>376543.2677956219</v>
+        <v>376543.267795622</v>
       </c>
       <c r="K2" t="n">
         <v>376543.2677956219</v>
@@ -26344,16 +26346,16 @@
         <v>376543.2677956218</v>
       </c>
       <c r="M2" t="n">
-        <v>376543.2677956219</v>
+        <v>376543.267795622</v>
       </c>
       <c r="N2" t="n">
         <v>376543.2677956219</v>
       </c>
       <c r="O2" t="n">
-        <v>289558.7723153067</v>
+        <v>376543.2677956218</v>
       </c>
       <c r="P2" t="n">
-        <v>289558.7723153068</v>
+        <v>376543.2677956219</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245424.1522830951</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118735.1844321139</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191612.5031703528</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152083.7444815841</v>
+        <v>184088.9587438941</v>
       </c>
       <c r="C4" t="n">
-        <v>152083.7444815841</v>
+        <v>184088.9587438941</v>
       </c>
       <c r="D4" t="n">
-        <v>152083.7444815841</v>
+        <v>99895.51658519969</v>
       </c>
       <c r="E4" t="n">
-        <v>34474.59853473143</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="F4" t="n">
-        <v>34474.59853473143</v>
+        <v>44919.86535090263</v>
       </c>
       <c r="G4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="H4" t="n">
         <v>44919.86535090265</v>
@@ -26439,25 +26441,25 @@
         <v>44919.86535090265</v>
       </c>
       <c r="J4" t="n">
-        <v>44919.86535090263</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="K4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="L4" t="n">
         <v>44919.86535090263</v>
       </c>
       <c r="M4" t="n">
+        <v>44919.86535090264</v>
+      </c>
+      <c r="N4" t="n">
+        <v>44919.86535090264</v>
+      </c>
+      <c r="O4" t="n">
         <v>44919.86535090265</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>44919.86535090265</v>
-      </c>
-      <c r="O4" t="n">
-        <v>34474.59853473143</v>
-      </c>
-      <c r="P4" t="n">
-        <v>34474.59853473143</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78153.90365212827</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>78153.90365212827</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>78153.90365212827</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-52167.57853241925</v>
+        <v>-919.3118311176077</v>
       </c>
       <c r="C6" t="n">
-        <v>193256.5737506757</v>
+        <v>174036.1980619964</v>
       </c>
       <c r="D6" t="n">
-        <v>193256.5737506756</v>
+        <v>52770.16503391985</v>
       </c>
       <c r="E6" t="n">
-        <v>210557.8701284471</v>
+        <v>233789.2380189117</v>
       </c>
       <c r="F6" t="n">
-        <v>210557.8701284472</v>
+        <v>260758.1921998459</v>
       </c>
       <c r="G6" t="n">
-        <v>142023.007767732</v>
+        <v>260758.1921998458</v>
       </c>
       <c r="H6" t="n">
-        <v>260758.192199846</v>
+        <v>260758.1921998461</v>
       </c>
       <c r="I6" t="n">
         <v>260758.192199846</v>
       </c>
       <c r="J6" t="n">
-        <v>69145.68902949312</v>
+        <v>124163.3913939511</v>
       </c>
       <c r="K6" t="n">
         <v>260758.1921998459</v>
       </c>
       <c r="L6" t="n">
+        <v>120758.8813350931</v>
+      </c>
+      <c r="M6" t="n">
+        <v>238248.9274257986</v>
+      </c>
+      <c r="N6" t="n">
+        <v>260758.192199846</v>
+      </c>
+      <c r="O6" t="n">
         <v>260758.1921998459</v>
       </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
         <v>260758.1921998459</v>
-      </c>
-      <c r="N6" t="n">
-        <v>260758.1921998459</v>
-      </c>
-      <c r="O6" t="n">
-        <v>210557.870128447</v>
-      </c>
-      <c r="P6" t="n">
-        <v>210557.8701284471</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>732.340520594215</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>433.2057005385699</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>433.2057005385699</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>289.8745437085076</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,10 +27441,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>80.24312864881745</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,22 +27587,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>195.700823431613</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>351.3863286294683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>33.97985762674709</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27679,10 +27681,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27776,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>150.85037978363</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>8.893130557884689</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>136.8168809163672</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>59.18065692248965</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28016,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
@@ -28029,7 +28031,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>52.58343719466035</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>8.893130557884604</v>
       </c>
     </row>
     <row r="11">
@@ -34699,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>390.8971750962091</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>719.7892927396343</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>732.340520594215</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34720,7 +34722,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>491.2320453030854</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>306.2096305948396</v>
       </c>
       <c r="P3" t="n">
-        <v>567.3796893823536</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>543.5954556656965</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>508.176816211932</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,19 +35020,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>56.37282568464934</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
-        <v>711.0677682281761</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>567.3796893823536</v>
+        <v>500.9700927793172</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>253.9151191946136</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>543.5954556656965</v>
@@ -35179,19 +35181,19 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>217.8188936053221</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>491.1735759094091</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
-        <v>732.340520594215</v>
+        <v>70.29230409914798</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
         <v>353.3782471555388</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>65.17005426609525</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>623.7525150670029</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N12" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>114.7976394954162</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
@@ -35665,10 +35667,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>667.0544530736757</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>516.9120523430244</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35890,7 +35892,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M17" t="n">
-        <v>784.1601929209637</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N17" t="n">
         <v>760.7889056955737</v>
@@ -35969,13 +35971,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N18" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36203,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>547.9029729663084</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
         <v>667.7658302215033</v>
@@ -36683,13 +36685,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>688.3272054397147</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>371.6049244215989</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36917,19 +36919,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>435.3350991233255</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37324,7 +37326,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q35" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R35" t="n">
         <v>40.9663087773382</v>
@@ -37388,7 +37390,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>851.4920007015825</v>
@@ -37397,7 +37399,7 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
-        <v>814.7521920923314</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
-        <v>180.800517395341</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,13 +37867,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>732.340520594215</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>602.479762700964</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
@@ -38023,10 +38025,10 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>451.7539247189785</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
@@ -38035,10 +38037,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,13 +38104,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>732.340520594215</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
-        <v>602.4797627009638</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1541412.005847686</v>
+        <v>1540099.360392107</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.811029742</v>
+        <v>5301029.81102974</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8076718.435252844</v>
+        <v>8076718.435252845</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>299.6795692073657</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>381.8047781162003</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>27.35334490128912</v>
+        <v>180.6077930059088</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>49.03296197840172</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>16.8201079258493</v>
@@ -916,7 +916,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>74.00536571764114</v>
       </c>
     </row>
     <row r="6">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>228.2601210751802</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>175.4647255438872</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1138,19 +1138,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>23.80406948072585</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>248.6187554760695</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -1195,7 +1195,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>175.4647255438872</v>
       </c>
       <c r="Y10" t="n">
-        <v>213.5952110672383</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>355.4445328256823</v>
+        <v>269.9562877695847</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
@@ -1548,7 +1548,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128957</v>
+        <v>108.9281999927018</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -1624,7 +1624,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>119.8051733265735</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -1663,16 +1663,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>334.0755358138493</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059089</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>263.4078289815067</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -1864,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
@@ -1909,7 +1909,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>354.5721285655362</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>58.23504547326687</v>
       </c>
       <c r="X19" t="n">
-        <v>102.0946856454011</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2095,10 +2095,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>58.8776823612798</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>119.0961282836263</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
@@ -2304,7 +2304,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -2323,22 +2323,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>368.1319780410717</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>27.35334490128935</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="26">
@@ -2566,13 +2566,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>378.9769832968749</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
@@ -2617,7 +2617,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>379.166248813512</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>91.83504102362539</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>186.0936665681651</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>182.9557283947299</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -2809,7 +2809,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>304.7162152260364</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>254.489886823085</v>
@@ -2958,16 +2958,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>36.45020302297358</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0.6341148424382413</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>117.4784251967216</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>123.8394724344234</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>266.2723283900672</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -3255,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="35">
@@ -3274,10 +3274,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>384.5327953590509</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>118.8842389624892</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="38">
@@ -3505,10 +3505,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>363.9585094926619</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>22.55063026834896</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
@@ -3729,7 +3729,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>97.46748333863208</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -3760,7 +3760,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>31.42227043795236</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3903,22 +3903,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>114.3017476756748</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>97.61252423526798</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>31.99018014062471</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>72.55946887449164</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
   </sheetData>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>974.6830684215697</v>
+        <v>1292.371709779047</v>
       </c>
       <c r="C2" t="n">
-        <v>564.5584777348398</v>
+        <v>882.247119092317</v>
       </c>
       <c r="D2" t="n">
-        <v>564.1349518683044</v>
+        <v>477.7831891853775</v>
       </c>
       <c r="E2" t="n">
-        <v>553.8351404256051</v>
+        <v>467.4833777426783</v>
       </c>
       <c r="F2" t="n">
-        <v>536.8451324196967</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M2" t="n">
-        <v>1075.450954962253</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N2" t="n">
+        <v>812.7934917636817</v>
+      </c>
+      <c r="O2" t="n">
         <v>1209.69369432892</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1726.536628995245</v>
       </c>
       <c r="P2" t="n">
         <v>1726.536628995245</v>
@@ -4369,13 +4369,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>1785.547645917107</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>1384.904248086059</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y2" t="n">
-        <v>1384.904248086059</v>
+        <v>1702.592889443536</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922355</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922355</v>
+        <v>497.571341894901</v>
       </c>
       <c r="L3" t="n">
-        <v>234.5779431922355</v>
+        <v>497.571341894901</v>
       </c>
       <c r="M3" t="n">
-        <v>751.4208778585607</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N3" t="n">
-        <v>1268.263812524886</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="O3" t="n">
-        <v>1571.411346813777</v>
+        <v>1531.257211227552</v>
       </c>
       <c r="P3" t="n">
-        <v>2088.254281480102</v>
+        <v>2048.100145893877</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1131.098935930739</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="C4" t="n">
-        <v>960.0055634924552</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="D4" t="n">
-        <v>800.5109188153651</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481257</v>
+        <v>572.9379342644625</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867005</v>
       </c>
       <c r="L4" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667611</v>
       </c>
       <c r="M4" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N4" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101505</v>
       </c>
       <c r="O4" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427979</v>
       </c>
       <c r="P4" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q4" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>2002.981563155502</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1816.589795035412</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1577.041056012114</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>1294.242908558238</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.163982250452</v>
+        <v>1020.35716349776</v>
       </c>
       <c r="W4" t="n">
-        <v>1571.163982250452</v>
+        <v>741.2874990066346</v>
       </c>
       <c r="X4" t="n">
-        <v>1543.534340936018</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="Y4" t="n">
-        <v>1318.798642324783</v>
+        <v>558.8553848592519</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>930.6558803095402</v>
+        <v>1603.280207151329</v>
       </c>
       <c r="C5" t="n">
-        <v>520.5312896228103</v>
+        <v>1193.155616464599</v>
       </c>
       <c r="D5" t="n">
-        <v>471.0030452001823</v>
+        <v>788.6916865576595</v>
       </c>
       <c r="E5" t="n">
-        <v>460.703233757483</v>
+        <v>374.3514710745562</v>
       </c>
       <c r="F5" t="n">
-        <v>443.7132257515746</v>
+        <v>357.3614630686478</v>
       </c>
       <c r="G5" t="n">
-        <v>439.0253456848109</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4570,16 +4570,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>537.7254774811266</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
-        <v>1054.568412147452</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M5" t="n">
-        <v>1571.411346813777</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N5" t="n">
-        <v>2088.254281480102</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O5" t="n">
         <v>2088.254281480102</v>
@@ -4603,16 +4603,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1738.416726816583</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1738.416726816583</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>1337.773328985535</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y5" t="n">
-        <v>936.8366559336256</v>
+        <v>2013.501386815818</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4652,22 +4652,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L6" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M6" t="n">
-        <v>558.6080202959273</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="N6" t="n">
-        <v>1075.450954962253</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O6" t="n">
-        <v>1592.293889628578</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.76508562960205</v>
+        <v>981.4914807361952</v>
       </c>
       <c r="C7" t="n">
-        <v>41.76508562960205</v>
+        <v>810.3981082979117</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>650.9034636208218</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>489.9926484891412</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4755,22 +4755,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1340.598203386633</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1057.800055932758</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>783.9143108722797</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>504.844646381154</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>266.5007842408373</v>
+        <v>1393.926885741475</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.76508562960205</v>
+        <v>1169.19118713024</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2482.186976416982</v>
+        <v>1740.93911629311</v>
       </c>
       <c r="C8" t="n">
-        <v>2072.062385730253</v>
+        <v>1330.81452560638</v>
       </c>
       <c r="D8" t="n">
-        <v>1667.598455823313</v>
+        <v>1330.390999739845</v>
       </c>
       <c r="E8" t="n">
-        <v>1253.25824034021</v>
+        <v>916.0507842567413</v>
       </c>
       <c r="F8" t="n">
-        <v>832.2278282938973</v>
+        <v>892.0062696297455</v>
       </c>
       <c r="G8" t="n">
-        <v>423.4995441867295</v>
+        <v>483.2779855225776</v>
       </c>
       <c r="H8" t="n">
         <v>172.3694881502956</v>
@@ -4804,25 +4804,25 @@
         <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>340.2031969351231</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K8" t="n">
-        <v>878.3626980441626</v>
+        <v>624.1772265764083</v>
       </c>
       <c r="L8" t="n">
-        <v>1590.9540978564</v>
+        <v>1336.768626388646</v>
       </c>
       <c r="M8" t="n">
-        <v>2367.272688848154</v>
+        <v>2113.0872173804</v>
       </c>
       <c r="N8" t="n">
-        <v>3120.453705486772</v>
+        <v>2866.268234019018</v>
       </c>
       <c r="O8" t="n">
-        <v>3764.084561903877</v>
+        <v>3509.899090436123</v>
       </c>
       <c r="P8" t="n">
-        <v>3979.725266573146</v>
+        <v>4039.055788355275</v>
       </c>
       <c r="Q8" t="n">
         <v>4300.886273368438</v>
@@ -4831,25 +4831,25 @@
         <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>4300.886273368438</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>4300.886273368438</v>
+        <v>3943.398714109398</v>
       </c>
       <c r="U8" t="n">
-        <v>4043.825781627948</v>
+        <v>3686.338222368908</v>
       </c>
       <c r="V8" t="n">
-        <v>3693.988226964429</v>
+        <v>3336.500667705388</v>
       </c>
       <c r="W8" t="n">
-        <v>3693.988226964429</v>
+        <v>2952.740366840557</v>
       </c>
       <c r="X8" t="n">
-        <v>3293.344829133382</v>
+        <v>2552.096969009509</v>
       </c>
       <c r="Y8" t="n">
-        <v>2892.408156081472</v>
+        <v>2151.160295957599</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>278.830583030002</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K9" t="n">
-        <v>278.830583030002</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="L9" t="n">
-        <v>278.830583030002</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="M9" t="n">
-        <v>1121.807663724569</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="N9" t="n">
-        <v>1191.397044782725</v>
+        <v>866.8439382834442</v>
       </c>
       <c r="O9" t="n">
-        <v>1191.397044782725</v>
+        <v>1570.801028829339</v>
       </c>
       <c r="P9" t="n">
-        <v>1753.102937271255</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="Q9" t="n">
-        <v>2102.947401955239</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="R9" t="n">
         <v>2132.506921317869</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86.01772546736876</v>
+        <v>1025.744120573962</v>
       </c>
       <c r="C10" t="n">
-        <v>86.01772546736876</v>
+        <v>854.6507481356784</v>
       </c>
       <c r="D10" t="n">
-        <v>86.01772546736876</v>
+        <v>695.1561034585884</v>
       </c>
       <c r="E10" t="n">
-        <v>86.01772546736876</v>
+        <v>534.2452883269079</v>
       </c>
       <c r="F10" t="n">
-        <v>86.01772546736876</v>
+        <v>369.6141624374992</v>
       </c>
       <c r="G10" t="n">
-        <v>86.01772546736876</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="H10" t="n">
-        <v>86.01772546736876</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="I10" t="n">
         <v>86.01772546736876</v>
@@ -4992,22 +4992,22 @@
         <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1375.867883064921</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="U10" t="n">
-        <v>1093.069735611045</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="V10" t="n">
-        <v>819.1839905505669</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="W10" t="n">
-        <v>540.1143260594413</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="X10" t="n">
-        <v>301.7704639191247</v>
+        <v>1438.179525579242</v>
       </c>
       <c r="Y10" t="n">
-        <v>86.01772546736876</v>
+        <v>1213.443826968006</v>
       </c>
     </row>
     <row r="11">
@@ -5032,10 +5032,10 @@
         <v>452.2785793327262</v>
       </c>
       <c r="G11" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H11" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5129,16 +5129,16 @@
         <v>1210.13812587521</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.182536368609</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N12" t="n">
-        <v>1228.182536368609</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O12" t="n">
-        <v>1228.182536368609</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P12" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
         <v>2139.732893541123</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1182.57754799176</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="C13" t="n">
-        <v>1011.484175553476</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="D13" t="n">
-        <v>851.989530876386</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="E13" t="n">
-        <v>691.0787157447054</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="F13" t="n">
-        <v>526.4475898552967</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G13" t="n">
-        <v>359.19719878084</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H13" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5223,28 +5223,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S13" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T13" t="n">
-        <v>1622.642594311473</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U13" t="n">
-        <v>1622.642594311473</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="V13" t="n">
-        <v>1622.642594311473</v>
+        <v>1023.935391903097</v>
       </c>
       <c r="W13" t="n">
-        <v>1622.642594311473</v>
+        <v>744.865727411971</v>
       </c>
       <c r="X13" t="n">
-        <v>1595.012952997039</v>
+        <v>634.8372425708581</v>
       </c>
       <c r="Y13" t="n">
-        <v>1370.277254385804</v>
+        <v>410.1015439596227</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2549.191389976085</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C14" t="n">
-        <v>2139.066799289355</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D14" t="n">
-        <v>1734.602869382415</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E14" t="n">
-        <v>1320.262653899312</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F14" t="n">
-        <v>899.2322418529996</v>
+        <v>709.339071073216</v>
       </c>
       <c r="G14" t="n">
-        <v>490.5039577458317</v>
+        <v>300.6107869660482</v>
       </c>
       <c r="H14" t="n">
         <v>179.5954603735497</v>
@@ -5311,19 +5311,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V14" t="n">
-        <v>3697.79927886809</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W14" t="n">
-        <v>3360.349242692484</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X14" t="n">
-        <v>3360.349242692484</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y14" t="n">
-        <v>2959.412569640574</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="15">
@@ -5360,19 +5360,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L15" t="n">
-        <v>754.331869609911</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M15" t="n">
-        <v>754.331869609911</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N15" t="n">
-        <v>1627.989961721529</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O15" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.2436976906228</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C16" t="n">
-        <v>93.2436976906228</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D16" t="n">
-        <v>93.2436976906228</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E16" t="n">
-        <v>93.2436976906228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F16" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G16" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H16" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1111.429368843485</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U16" t="n">
-        <v>828.6312213896092</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V16" t="n">
-        <v>554.7454763291312</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W16" t="n">
-        <v>275.6758118380055</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X16" t="n">
-        <v>93.2436976906228</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.2436976906228</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2144.727460069145</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C17" t="n">
-        <v>1734.602869382415</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5545,22 +5545,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X17" t="n">
-        <v>2955.885312785545</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y17" t="n">
-        <v>2554.948639733635</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M18" t="n">
-        <v>562.1177108836107</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N18" t="n">
-        <v>1435.775802995229</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P18" t="n">
         <v>2139.732893541123</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>588.462840695405</v>
+        <v>581.1949163979062</v>
       </c>
       <c r="C19" t="n">
-        <v>417.3694682571215</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="D19" t="n">
-        <v>257.8748235800315</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="E19" t="n">
-        <v>257.8748235800315</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H19" t="n">
         <v>93.2436976906228</v>
@@ -5700,25 +5700,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T19" t="n">
-        <v>1383.093855288175</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U19" t="n">
-        <v>1383.093855288175</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V19" t="n">
-        <v>1383.093855288175</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W19" t="n">
-        <v>1104.024190797049</v>
+        <v>581.1949163979062</v>
       </c>
       <c r="X19" t="n">
-        <v>1000.898245700685</v>
+        <v>581.1949163979062</v>
       </c>
       <c r="Y19" t="n">
-        <v>776.1625470894494</v>
+        <v>581.1949163979062</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D20" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
         <v>93.2436976906228</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="21">
@@ -5837,16 +5837,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P21" t="n">
         <v>2139.732893541123</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3303.879360348573</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="C22" t="n">
-        <v>3132.785987910289</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="D22" t="n">
-        <v>3132.785987910289</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>4662.18488453114</v>
+        <v>1502.343474833063</v>
       </c>
       <c r="U22" t="n">
-        <v>4379.386737077264</v>
+        <v>1219.545327379187</v>
       </c>
       <c r="V22" t="n">
-        <v>4105.500992016786</v>
+        <v>945.6595823187087</v>
       </c>
       <c r="W22" t="n">
-        <v>3826.43132752566</v>
+        <v>666.589917827583</v>
       </c>
       <c r="X22" t="n">
-        <v>3588.087465385343</v>
+        <v>666.589917827583</v>
       </c>
       <c r="Y22" t="n">
-        <v>3363.351766774108</v>
+        <v>441.8542192163477</v>
       </c>
     </row>
     <row r="23">
@@ -5971,19 +5971,19 @@
         <v>1692.113136769081</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F23" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G23" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H23" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6074,16 +6074,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4222.119838211426</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>4051.026465773143</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4634.555243216706</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4634.555243216706</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>4634.555243216706</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>4634.555243216706</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>4634.555243216706</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>4634.555243216706</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X25" t="n">
-        <v>4634.555243216706</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y25" t="n">
-        <v>4409.819544605471</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F26" t="n">
-        <v>873.3089913790386</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H26" t="n">
         <v>179.5954603735497</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="27">
@@ -6308,19 +6308,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>1210.13812587521</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.13812587521</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N27" t="n">
-        <v>1210.13812587521</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O27" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>370.5005587179772</v>
+        <v>749.3736558270855</v>
       </c>
       <c r="C28" t="n">
-        <v>370.5005587179772</v>
+        <v>578.280283388802</v>
       </c>
       <c r="D28" t="n">
-        <v>370.5005587179772</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E28" t="n">
-        <v>209.5897435862967</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6411,25 +6411,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S28" t="n">
-        <v>1350.978107866783</v>
+        <v>1444.607208286241</v>
       </c>
       <c r="T28" t="n">
-        <v>1111.429368843485</v>
+        <v>1444.607208286241</v>
       </c>
       <c r="U28" t="n">
-        <v>1111.429368843485</v>
+        <v>1161.809060832365</v>
       </c>
       <c r="V28" t="n">
-        <v>837.543623783007</v>
+        <v>1161.809060832365</v>
       </c>
       <c r="W28" t="n">
-        <v>558.4739592918813</v>
+        <v>1161.809060832365</v>
       </c>
       <c r="X28" t="n">
-        <v>370.5005587179772</v>
+        <v>1161.809060832365</v>
       </c>
       <c r="Y28" t="n">
-        <v>370.5005587179772</v>
+        <v>937.0733622211299</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2237.518802661711</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C29" t="n">
-        <v>2052.715036606428</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D29" t="n">
-        <v>1648.251106699488</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E29" t="n">
-        <v>1233.910891216385</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F29" t="n">
-        <v>812.8804791700727</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G29" t="n">
-        <v>404.1521950629048</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H29" t="n">
         <v>93.2436976906228</v>
@@ -6493,22 +6493,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4439.978400477999</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U29" t="n">
-        <v>4182.917908737509</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V29" t="n">
-        <v>3833.080354073989</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W29" t="n">
-        <v>3449.320053209158</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X29" t="n">
-        <v>3048.67665537811</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y29" t="n">
-        <v>2647.7399823262</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M30" t="n">
-        <v>524.2254458227151</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N30" t="n">
-        <v>524.2254458227151</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O30" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>460.6501016978888</v>
+        <v>1066.231502096085</v>
       </c>
       <c r="C31" t="n">
-        <v>289.5567292596053</v>
+        <v>895.138129657802</v>
       </c>
       <c r="D31" t="n">
-        <v>130.0620845825153</v>
+        <v>735.6434849807119</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H31" t="n">
         <v>93.2436976906228</v>
@@ -6648,25 +6648,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S31" t="n">
-        <v>1350.978107866783</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T31" t="n">
-        <v>1111.429368843485</v>
+        <v>1536.729355944006</v>
       </c>
       <c r="U31" t="n">
-        <v>1111.429368843485</v>
+        <v>1253.93120849013</v>
       </c>
       <c r="V31" t="n">
-        <v>1111.429368843485</v>
+        <v>1253.93120849013</v>
       </c>
       <c r="W31" t="n">
-        <v>1111.429368843485</v>
+        <v>1253.93120849013</v>
       </c>
       <c r="X31" t="n">
-        <v>873.0855067031684</v>
+        <v>1253.93120849013</v>
       </c>
       <c r="Y31" t="n">
-        <v>648.3498080919331</v>
+        <v>1253.93120849013</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C32" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D32" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E32" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F32" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G32" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6730,22 +6730,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4526.90380932524</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="U32" t="n">
-        <v>4269.84331758475</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V32" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W32" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X32" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y32" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M33" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>423.8317148059963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>252.7383423677128</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
         <v>93.2436976906228</v>
@@ -6888,22 +6888,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V34" t="n">
-        <v>1353.680646442718</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W34" t="n">
-        <v>1074.610981951593</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X34" t="n">
-        <v>836.267119811276</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y34" t="n">
-        <v>611.5314212000407</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F35" t="n">
         <v>899.2322418529996</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W35" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X35" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4010.200740502562</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>3890.115650641462</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>4422.636145507842</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>4422.636145507842</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>4422.636145507842</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>4422.636145507842</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X37" t="n">
-        <v>4422.636145507842</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y37" t="n">
-        <v>4197.900446896607</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="D38" t="n">
         <v>1734.602869382415</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X38" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y38" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M39" t="n">
-        <v>1597.308950304478</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N39" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>584.7425299376769</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>413.6491574993933</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>254.1545128223033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
         <v>93.2436976906228</v>
@@ -7356,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1537.369875986873</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>1537.369875986873</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V40" t="n">
-        <v>1514.591461574399</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W40" t="n">
-        <v>1235.521797083273</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X40" t="n">
-        <v>997.1779349429565</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.4422363317212</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2237.518802661711</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C41" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D41" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E41" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F41" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G41" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4662.18488453114</v>
+        <v>4630.445217422097</v>
       </c>
       <c r="T41" t="n">
-        <v>4439.978400477999</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="U41" t="n">
-        <v>4182.917908737509</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V41" t="n">
-        <v>3833.080354073989</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W41" t="n">
-        <v>3449.320053209158</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X41" t="n">
-        <v>3048.67665537811</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y41" t="n">
-        <v>2647.7399823262</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M42" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N42" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>700.1988407211867</v>
+        <v>858.4517774252606</v>
       </c>
       <c r="C43" t="n">
-        <v>529.1054682829032</v>
+        <v>687.3584049869771</v>
       </c>
       <c r="D43" t="n">
-        <v>369.6108236058132</v>
+        <v>687.3584049869771</v>
       </c>
       <c r="E43" t="n">
-        <v>208.7000084741327</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="F43" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G43" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H43" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I43" t="n">
         <v>93.2436976906228</v>
@@ -7593,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1350.978107866783</v>
+        <v>1524.044084982919</v>
       </c>
       <c r="T43" t="n">
-        <v>1350.978107866783</v>
+        <v>1284.495345959622</v>
       </c>
       <c r="U43" t="n">
-        <v>1350.978107866783</v>
+        <v>1284.495345959622</v>
       </c>
       <c r="V43" t="n">
-        <v>1350.978107866783</v>
+        <v>1284.495345959622</v>
       </c>
       <c r="W43" t="n">
-        <v>1350.978107866783</v>
+        <v>1284.495345959622</v>
       </c>
       <c r="X43" t="n">
-        <v>1112.634245726466</v>
+        <v>1046.151483819305</v>
       </c>
       <c r="Y43" t="n">
-        <v>887.8985471152311</v>
+        <v>1046.151483819305</v>
       </c>
     </row>
     <row r="44">
@@ -7648,10 +7648,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
         <v>1598.180070079655</v>
@@ -7675,10 +7675,10 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4494.590496051882</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U44" t="n">
         <v>4494.590496051882</v>
@@ -7727,28 +7727,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M45" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N45" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O45" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P45" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>252.7383423677128</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>252.7383423677128</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
         <v>93.2436976906228</v>
@@ -7830,28 +7830,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1350.978107866783</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>1068.179960412907</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V46" t="n">
-        <v>994.8875676103903</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W46" t="n">
-        <v>715.8179031192647</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X46" t="n">
-        <v>477.4740409789481</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y46" t="n">
-        <v>252.7383423677128</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>228.5110173896169</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8057,10 +8057,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
@@ -8069,19 +8069,19 @@
         <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>363.9611095948396</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>67.39425105392507</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>590.1064824525349</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
         <v>617.5489684328704</v>
@@ -8230,7 +8230,7 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P5" t="n">
         <v>93.64936328088416</v>
@@ -8300,10 +8300,10 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>175.2980289959033</v>
       </c>
       <c r="N6" t="n">
         <v>575.2569637637755</v>
@@ -8312,13 +8312,13 @@
         <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>555.229727782121</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
         <v>632.7318453389136</v>
@@ -8470,10 +8470,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>311.4682568862063</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>354.5090417861859</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8531,7 +8531,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
         <v>55.82578278461539</v>
@@ -8540,22 +8540,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>123.485697492898</v>
+        <v>841.906739672614</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8777,19 +8777,19 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>75.79096100447751</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>429.3564034215989</v>
       </c>
       <c r="P12" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8947,7 +8947,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9008,7 +9008,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
         <v>723.8803540323523</v>
@@ -9017,13 +9017,13 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>574.6635313430244</v>
+        <v>429.3564034215989</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9245,22 +9245,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>429.3564034215989</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9424,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,19 +9485,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>174.1409094511112</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
@@ -9722,19 +9722,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>889.5795680239546</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9956,22 +9956,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>601.0963663600584</v>
       </c>
       <c r="O27" t="n">
-        <v>429.3564034215989</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10190,22 +10190,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M30" t="n">
-        <v>492.8993828617429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
         <v>621.6393243851574</v>
@@ -10214,7 +10214,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M33" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>741.5205988334646</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O38" t="n">
-        <v>743.321953824879</v>
+        <v>743.3219538248791</v>
       </c>
       <c r="P38" t="n">
         <v>628.1510783507341</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>601.0963663600584</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
         <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11083,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>49.19646844041381</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176239</v>
+        <v>127.0322235262117</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>187.9942390719856</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23551,16 +23551,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>45.84716204233376</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300456</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>137.0114616263633</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>42.06483528720082</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23940,25 +23940,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>218.0439223729475</v>
       </c>
       <c r="X19" t="n">
-        <v>133.8657378735124</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>126.9450269688242</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
@@ -24180,7 +24180,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>118.0571233494386</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24211,22 +24211,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>32.28731256679833</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.066646240065</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="26">
@@ -24454,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>25.66401796922122</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>0.756449042671079</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.577887163712</v>
@@ -24621,7 +24621,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>92.69280941526344</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>49.86675695074837</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>223.0676163851327</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>3.08319717252283</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -24733,7 +24733,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>122.8515039573902</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>236.5191367906267</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -24903,10 +24903,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,13 +24970,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>102.5059940158882</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>222.4997066824607</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
@@ -25128,13 +25128,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>4.874559219806031</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="35">
@@ -25162,10 +25162,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>25.66401796922133</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>50.49819975141148</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="38">
@@ -25393,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>42.06483528720065</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>248.5962573415243</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>308.5558614412305</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>102.5059940158878</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>48.68306695483986</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>86.91532620362085</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>187.994239071985</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>198.5874187353816</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>681408.805997964</v>
+        <v>681408.8059979642</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>681408.8059979641</v>
+        <v>681408.805997964</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>681408.8059979641</v>
+        <v>681408.805997964</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>681408.8059979642</v>
+        <v>681408.8059979641</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>681408.805997964</v>
+        <v>681408.8059979642</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>681408.8059979641</v>
+        <v>681408.805997964</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>681408.8059979641</v>
+        <v>681408.8059979642</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>681408.8059979642</v>
+        <v>681408.8059979641</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>681408.805997964</v>
+        <v>681408.8059979641</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>423494.2218843882</v>
+      </c>
+      <c r="C2" t="n">
         <v>423494.2218843881</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>423494.221884388</v>
       </c>
-      <c r="D2" t="n">
-        <v>423494.2218843882</v>
-      </c>
       <c r="E2" t="n">
-        <v>376543.2677956219</v>
+        <v>376543.2677956221</v>
       </c>
       <c r="F2" t="n">
         <v>376543.2677956219</v>
       </c>
       <c r="G2" t="n">
-        <v>376543.2677956218</v>
+        <v>376543.267795622</v>
       </c>
       <c r="H2" t="n">
+        <v>376543.267795622</v>
+      </c>
+      <c r="I2" t="n">
         <v>376543.2677956221</v>
       </c>
-      <c r="I2" t="n">
-        <v>376543.267795622</v>
-      </c>
       <c r="J2" t="n">
-        <v>376543.267795622</v>
+        <v>376543.2677956219</v>
       </c>
       <c r="K2" t="n">
         <v>376543.2677956219</v>
       </c>
       <c r="L2" t="n">
-        <v>376543.2677956218</v>
+        <v>376543.2677956221</v>
       </c>
       <c r="M2" t="n">
+        <v>376543.2677956221</v>
+      </c>
+      <c r="N2" t="n">
         <v>376543.267795622</v>
       </c>
-      <c r="N2" t="n">
-        <v>376543.2677956219</v>
-      </c>
       <c r="O2" t="n">
-        <v>376543.2677956218</v>
+        <v>376543.2677956221</v>
       </c>
       <c r="P2" t="n">
-        <v>376543.2677956219</v>
+        <v>376543.2677956221</v>
       </c>
     </row>
     <row r="3">
@@ -26423,13 +26423,13 @@
         <v>184088.9587438941</v>
       </c>
       <c r="D4" t="n">
-        <v>99895.51658519969</v>
+        <v>99895.51658519972</v>
       </c>
       <c r="E4" t="n">
         <v>44919.86535090264</v>
       </c>
       <c r="F4" t="n">
-        <v>44919.86535090263</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="G4" t="n">
         <v>44919.86535090264</v>
@@ -26441,25 +26441,25 @@
         <v>44919.86535090265</v>
       </c>
       <c r="J4" t="n">
-        <v>44919.86535090264</v>
+        <v>44919.86535090265</v>
       </c>
       <c r="K4" t="n">
         <v>44919.86535090264</v>
       </c>
       <c r="L4" t="n">
+        <v>44919.86535090264</v>
+      </c>
+      <c r="M4" t="n">
         <v>44919.86535090263</v>
-      </c>
-      <c r="M4" t="n">
-        <v>44919.86535090264</v>
       </c>
       <c r="N4" t="n">
         <v>44919.86535090264</v>
       </c>
       <c r="O4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="P4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-919.3118311176077</v>
+        <v>-919.3118311174985</v>
       </c>
       <c r="C6" t="n">
-        <v>174036.1980619964</v>
+        <v>174036.1980619965</v>
       </c>
       <c r="D6" t="n">
-        <v>52770.16503391985</v>
+        <v>52770.16503391956</v>
       </c>
       <c r="E6" t="n">
-        <v>233789.2380189117</v>
+        <v>233608.6574262628</v>
       </c>
       <c r="F6" t="n">
-        <v>260758.1921998459</v>
+        <v>260577.6116071969</v>
       </c>
       <c r="G6" t="n">
-        <v>260758.1921998458</v>
+        <v>260577.6116071969</v>
       </c>
       <c r="H6" t="n">
-        <v>260758.1921998461</v>
+        <v>260577.6116071969</v>
       </c>
       <c r="I6" t="n">
-        <v>260758.192199846</v>
+        <v>260577.611607197</v>
       </c>
       <c r="J6" t="n">
-        <v>124163.3913939511</v>
+        <v>123982.8108013019</v>
       </c>
       <c r="K6" t="n">
-        <v>260758.1921998459</v>
+        <v>260577.6116071969</v>
       </c>
       <c r="L6" t="n">
-        <v>120758.8813350931</v>
+        <v>120578.3007424443</v>
       </c>
       <c r="M6" t="n">
-        <v>238248.9274257986</v>
+        <v>238068.3468331496</v>
       </c>
       <c r="N6" t="n">
-        <v>260758.192199846</v>
+        <v>260577.6116071969</v>
       </c>
       <c r="O6" t="n">
-        <v>260758.1921998459</v>
+        <v>260577.611607197</v>
       </c>
       <c r="P6" t="n">
-        <v>260758.1921998459</v>
+        <v>260577.6116071971</v>
       </c>
     </row>
   </sheetData>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>80.24312864881745</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>15.12252820519052</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>208.6070786176243</v>
+        <v>55.35263051300461</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>351.3863286294683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>322.9219406037496</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,19 +27827,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>8.893130557884689</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>60.49569797502627</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>393.0160384451235</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>59.18065692248965</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,22 +28064,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>60.49569797502627</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.893130557884604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>400.9092955204429</v>
+      </c>
+      <c r="P2" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N2" t="n">
-        <v>135.5987266329976</v>
-      </c>
-      <c r="O2" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34789,19 +34789,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="O3" t="n">
-        <v>306.2096305948396</v>
       </c>
       <c r="P3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>10.70163254908636</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>522.0635703700256</v>
@@ -34950,7 +34950,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35020,10 +35020,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>117.7337452574859</v>
       </c>
       <c r="N6" t="n">
         <v>522.0635703700256</v>
@@ -35032,13 +35032,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>500.9700927793172</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>543.5954556656965</v>
@@ -35190,10 +35190,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>217.8188936053221</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>264.4752373870339</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>70.29230409914798</v>
+        <v>788.713346278864</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,19 +35497,19 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>18.22667726606008</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>371.6049244215989</v>
       </c>
       <c r="P12" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35667,7 +35667,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
         <v>667.7658302215033</v>
@@ -35737,13 +35737,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>516.9120523430244</v>
+        <v>371.6049244215989</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>371.6049244215989</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>120.9475160573612</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>832.0152842855372</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="O27" t="n">
-        <v>371.6049244215989</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M30" t="n">
-        <v>435.3350991233255</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>567.3796893823536</v>
@@ -36934,7 +36934,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>688.3272054397147</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O38" t="n">
-        <v>650.1321781990958</v>
+        <v>650.132178199096</v>
       </c>
       <c r="P38" t="n">
         <v>534.50171506985</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37803,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
